--- a/admin/OlyTemp-Expenses.xlsx
+++ b/admin/OlyTemp-Expenses.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28331"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="0" windowWidth="25360" windowHeight="15220" tabRatio="500"/>
+    <workbookView xWindow="100" yWindow="0" windowWidth="18080" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
   <si>
     <t>Item</t>
   </si>
@@ -43,13 +43,32 @@
   </si>
   <si>
     <t>Budget #</t>
+  </si>
+  <si>
+    <t>Teco TK-2000 Tank Chiller, 1/3 HP w/ Built in Heater</t>
+  </si>
+  <si>
+    <t>Plumbing components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferry </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -61,6 +80,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -83,15 +118,91 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="38">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -421,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -433,7 +544,7 @@
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="21.83203125" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
@@ -458,20 +569,173 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>11.6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43020</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>11.6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43031</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>11.6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43031</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>23.2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43038</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>23.2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43040</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>23.2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43045</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B8" s="3">
         <v>117</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C8" s="2">
         <v>43054</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>23.2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43055</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1740.8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>43056</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>25.87</v>
+      </c>
+      <c r="C11" s="2">
+        <v>43069</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>11.6</v>
+      </c>
+      <c r="C12" s="2">
+        <v>43082</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15">
+        <f>SUM(B2:B7,B9,B12)</f>
+        <v>139.20000000000002</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:F12">
+    <sortCondition ref="C2:C12"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
